--- a/data/trans_dic/P25A_3_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_3_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por colesterol alto</t>
+          <t>Población con limitación por colesterol alto (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -676,40 +725,70 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,62</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,7 +905,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -821,37 +930,67 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0,6%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>0,29%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,04</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,37</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,27</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,98</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,43</t>
         </is>
       </c>
     </row>
@@ -936,7 +1105,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -951,47 +1120,77 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>0,71%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,16%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,8</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,81</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,79</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,99</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,17</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,56</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,77</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,67</t>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,7</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,74</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,62</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 2,92</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1305,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,47 +1320,77 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>0,32%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>1,0%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,8</t>
+          <t>0,33; 3,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,55</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>1,53; 5,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,21</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,16</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,44</t>
+          <t>0,24; 2,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,19</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,06</t>
+          <t>0,54; 4,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 10,55</t>
+          <t>0,84; 5,49</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 1,35</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 1,43</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 1,93</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 2,09</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 2,81</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 4,61</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,82%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,73%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10,66%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,47</t>
+          <t>0,41; 4,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,67</t>
+          <t>0,59; 4,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,32; 2,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,09</t>
+          <t>0,54; 4,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>1,16; 6,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>2,12; 7,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,24</t>
+          <t>0,0; 3,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 19,65</t>
+          <t>0,0; 2,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,32</t>
+          <t>0,67; 4,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,53</t>
+          <t>1,81; 7,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,63</t>
+          <t>2,46; 8,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,72</t>
+          <t>2,1; 9,58</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 2,59</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 2,6</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 2,81</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 4,82</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 6,57</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 7,21</t>
         </is>
       </c>
     </row>
@@ -1361,57 +1710,87 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>2,91%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,22</t>
+          <t>0,39; 3,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,26</t>
+          <t>0,37; 5,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,48</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 7,9</t>
+          <t>1,19; 8,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,35</t>
+          <t>0,0; 7,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,14</t>
+          <t>0,86; 7,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 20,08</t>
+          <t>1,46; 6,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,01</t>
+          <t>0,91; 5,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,91</t>
+          <t>0,55; 6,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,83</t>
+          <t>0,93; 5,62</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,54; 12,42</t>
+          <t>3,71; 12,98</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,91</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 4,2</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 4,26</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,35</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 5,2</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 8,19</t>
         </is>
       </c>
     </row>
@@ -1501,57 +1910,87 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>0,92%</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,28%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>0,71%</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>0,76%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,04</t>
+          <t>0,27; 1,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,03</t>
+          <t>0,28; 1,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,15</t>
+          <t>0,32; 1,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,01</t>
+          <t>0,36; 1,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,84</t>
+          <t>0,72; 2,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,39</t>
+          <t>1,17; 2,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,52</t>
+          <t>0,42; 2,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 10,9</t>
+          <t>0,53; 1,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,25</t>
+          <t>0,55; 1,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,06</t>
+          <t>0,59; 2,21</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,15</t>
+          <t>1,23; 2,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,0</t>
+          <t>1,78; 4,04</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 1,21</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 1,1</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 1,19</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 1,5</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 2,23</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 3,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por colesterol alto (tasa de respuesta: 99,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2708</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2990</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2920</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7452</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3053</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2920</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3053</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7452</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15712</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 24768</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18922</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1816</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14941</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13483</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1881</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>0; 26297</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5386</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3328</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9032</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9909</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>12360</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18878</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1717</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1833</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16020</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18294</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9614</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9998</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1091</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 37089</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2399; 21760</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10690</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9750</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1967</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1878</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2375; 40630</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4279</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7664</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20478</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2158</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2060</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5217</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15831</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6536</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6339</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>12881</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1404</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>36309</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16789</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16739</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2115; 19097</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2068</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1216</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9936; 38058</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11717</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11520</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1603; 14198</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1062</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>285; 2474</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5511; 36055</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2099; 17843</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1766; 18692</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5200; 24930</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>213; 2306</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>667; 3080</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>20921; 60212</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6482</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8439</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5007</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1340</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21163</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4939</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4021</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9492</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1860</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23781</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>11421</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>12460</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>14499</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>44944</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2017; 19798</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2976; 21218</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1547; 14285</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>239; 2061</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>512; 2887</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10512; 38543</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 20134</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12247</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3410; 20952</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>877; 3786</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1146; 4029</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10848; 49536</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4178; 25861</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4752; 25903</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>6788; 28179</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1393; 4458</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>2094; 5960</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>27500; 73007</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7217</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9573</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11043</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18964</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22123</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18042</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>52056</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>18964</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>29339</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>27615</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>3154</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>63099</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2056; 19524</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1995; 31521</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1529</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>538; 3721</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 42487</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6098; 52601</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10086; 42016</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6226; 37983</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>346; 4387</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>588; 3543</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26822; 93912</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>6469; 61339</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>15832; 51102</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>13330; 52006</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>566; 4766</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1646; 5637</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>34127; 105600</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19165</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19934</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22244</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2276</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3906</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>63465</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>30585</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>33157</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>34759</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3568</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5790</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>100700</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>49750</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>53091</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>57004</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>5844</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>9697</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>164165</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9364; 37161</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9642; 39272</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11016; 44061</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1090; 4343</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2165; 7028</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>40326; 100369</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>15148; 73516</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>19006; 56613</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>19708; 57689</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1775; 6657</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3706; 8431</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>64186; 145221</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>30806; 85197</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>33071; 76930</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>36977; 84076</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>3555; 9025</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>6833; 13398</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>119494; 219717</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
